--- a/documents/Projeto 02 - Testes dos Programas.xlsx
+++ b/documents/Projeto 02 - Testes dos Programas.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="117">
   <si>
     <t>Dúvida</t>
   </si>
@@ -505,14 +505,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -853,7 +846,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,12 +936,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D9:D14">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -959,10 +952,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -970,10 +963,11 @@
     <col min="1" max="2" width="14.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="25.140625" style="4" customWidth="1"/>
     <col min="4" max="5" width="48.7109375" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="4"/>
+    <col min="6" max="6" width="20.85546875" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>98</v>
       </c>
@@ -990,7 +984,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1002,8 +996,12 @@
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="4" t="str">
+        <f>CONCATENATE("\item ",B2, ".c")</f>
+        <v>\item 000.main.c</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>A2+1</f>
         <v>2</v>
@@ -1016,10 +1014,14 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="4" t="str">
+        <f t="shared" ref="F3:F66" si="0">CONCATENATE("\item ",B3, ".c")</f>
+        <v>\item 011.const.c</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <f t="shared" ref="A4:A67" si="1">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1030,10 +1032,14 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 012.const.c</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1044,10 +1050,14 @@
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 013.const.c</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1058,10 +1068,14 @@
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="F6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 014.const.c</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1076,10 +1090,14 @@
       <c r="E7" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 015.const.c</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1090,10 +1108,14 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 016.const.c</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1104,10 +1126,14 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 017.const.c</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1118,10 +1144,14 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 018.const.c</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1132,10 +1162,14 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 021.cast.c</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1146,10 +1180,14 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 022.cast.c</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1160,10 +1198,14 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 023.cast.c</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1174,10 +1216,14 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 024.cast.c</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1190,10 +1236,14 @@
         <v>106</v>
       </c>
       <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="F15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 025.cast.c</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1208,10 +1258,14 @@
       <c r="E16" s="6" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 026.cast.c</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1222,10 +1276,14 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 027.cast.c</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -1236,34 +1294,50 @@
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 031.add.c</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 032.add.c</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="F20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 033.add.c</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -1278,10 +1352,14 @@
       <c r="E21" s="6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 034.add.c</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -1292,10 +1370,14 @@
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 041.sub.c</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -1306,10 +1388,14 @@
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 042.sub.c</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1320,10 +1406,14 @@
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="F24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 043.sub.c</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -1338,10 +1428,14 @@
       <c r="E25" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 044.sub.c</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -1352,10 +1446,14 @@
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 051.mul.c</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -1366,10 +1464,14 @@
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 052.mul.c</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -1380,10 +1482,14 @@
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 053.mul.c</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -1394,10 +1500,14 @@
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 054.mul.c</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -1412,10 +1522,14 @@
       <c r="E30" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 055.mul.c</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -1430,10 +1544,14 @@
       <c r="E31" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 056.mul.c</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -1448,10 +1566,14 @@
       <c r="E32" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 057.mul.c</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -1466,10 +1588,14 @@
       <c r="E33" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 058.mul.c</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -1480,10 +1606,14 @@
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 061.div.c</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -1494,10 +1624,14 @@
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 062.div.c</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -1508,10 +1642,14 @@
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 063.div.c</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -1522,10 +1660,14 @@
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 064.div.c</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -1536,10 +1678,14 @@
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 065.div.c</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -1550,10 +1696,14 @@
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 066.div.c</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -1564,10 +1714,14 @@
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 071.bool.c</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -1578,10 +1732,14 @@
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 072.bool.c</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -1592,10 +1750,14 @@
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 073.bool.c</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -1606,10 +1768,14 @@
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 074.bool.c</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -1624,10 +1790,14 @@
       <c r="E44" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 075.bool.c</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -1638,10 +1808,14 @@
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 076.bool.c</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -1652,10 +1826,14 @@
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 077.bool.c</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -1666,10 +1844,14 @@
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 078.bool.c</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -1680,10 +1862,14 @@
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 081.shift.c</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -1694,10 +1880,14 @@
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 082.shift.c</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -1708,10 +1898,14 @@
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 083.shift.c</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -1726,10 +1920,14 @@
       <c r="E51" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 084.shift.c</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -1744,10 +1942,14 @@
       <c r="E52" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 085.shift.c</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -1762,10 +1964,14 @@
       <c r="E53" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 086.shift.c</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -1780,10 +1986,14 @@
       <c r="E54" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 111.if.c</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -1798,10 +2008,14 @@
       <c r="E55" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 112.if.c</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -1816,10 +2030,14 @@
       <c r="E56" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 113.if.c</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -1830,10 +2048,14 @@
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 114.if.c</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -1844,10 +2066,14 @@
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 115.if.c</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -1858,10 +2084,14 @@
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 116.if.c</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -1872,10 +2102,14 @@
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 117.if.c</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -1886,10 +2120,14 @@
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 118.if.c</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -1900,10 +2138,14 @@
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 119.if.c</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
@@ -1914,10 +2156,14 @@
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 121.loop.c</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -1928,10 +2174,14 @@
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 122.loop.c</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
@@ -1942,10 +2192,14 @@
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 123.loop.c</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -1956,10 +2210,14 @@
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>\item 124.loop.c</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -1970,10 +2228,14 @@
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="4" t="str">
+        <f t="shared" ref="F67:F78" si="2">CONCATENATE("\item ",B67, ".c")</f>
+        <v>\item 125.loop.c</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <f t="shared" ref="A68:A78" si="1">A67+1</f>
+        <f t="shared" ref="A68:A78" si="3">A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
@@ -1984,10 +2246,14 @@
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>\item 126.loop.c</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -1998,10 +2264,14 @@
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>\item 131.call.c</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
@@ -2012,10 +2282,14 @@
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>\item 132.call.c</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -2026,10 +2300,14 @@
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>\item 133.call.c</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
@@ -2040,10 +2318,14 @@
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>\item 134.call.c</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -2054,10 +2336,14 @@
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>\item 141.array.c</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
@@ -2068,10 +2354,14 @@
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>\item 142.array.c</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
@@ -2082,10 +2372,14 @@
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>\item 143.array.c</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
@@ -2096,10 +2390,14 @@
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>\item 144.array.c</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
@@ -2110,10 +2408,14 @@
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>\item 145.array.c</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
@@ -2124,6 +2426,10 @@
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
+      <c r="F78" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>\item 146.array.c</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E78"/>
@@ -2131,12 +2437,12 @@
     <mergeCell ref="D15:E15"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Igual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C78">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>"Igual"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/documents/Projeto 02 - Testes dos Programas.xlsx
+++ b/documents/Projeto 02 - Testes dos Programas.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Plan2!$A$1:$E$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Plan2!$A$1:$F$78</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -952,10 +952,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F78"/>
+      <selection activeCell="B63" sqref="B63:B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -984,7 +985,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1001,7 +1002,7 @@
         <v>\item 000.main.c</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>A2+1</f>
         <v>2</v>
@@ -1019,7 +1020,7 @@
         <v>\item 011.const.c</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A67" si="1">A3+1</f>
         <v>3</v>
@@ -1037,7 +1038,7 @@
         <v>\item 012.const.c</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1055,7 +1056,7 @@
         <v>\item 013.const.c</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1073,7 +1074,7 @@
         <v>\item 014.const.c</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1095,7 +1096,7 @@
         <v>\item 015.const.c</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1113,7 +1114,7 @@
         <v>\item 016.const.c</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1131,7 +1132,7 @@
         <v>\item 017.const.c</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1149,7 +1150,7 @@
         <v>\item 018.const.c</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1167,7 +1168,7 @@
         <v>\item 021.cast.c</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1185,7 +1186,7 @@
         <v>\item 022.cast.c</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1203,7 +1204,7 @@
         <v>\item 023.cast.c</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1221,7 +1222,7 @@
         <v>\item 024.cast.c</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1241,7 +1242,7 @@
         <v>\item 025.cast.c</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1263,7 +1264,7 @@
         <v>\item 026.cast.c</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1281,7 +1282,7 @@
         <v>\item 027.cast.c</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1299,7 +1300,7 @@
         <v>\item 031.add.c</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1317,7 +1318,7 @@
         <v>\item 032.add.c</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1335,7 +1336,7 @@
         <v>\item 033.add.c</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1357,7 +1358,7 @@
         <v>\item 034.add.c</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1375,7 +1376,7 @@
         <v>\item 041.sub.c</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1393,7 +1394,7 @@
         <v>\item 042.sub.c</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1411,7 +1412,7 @@
         <v>\item 043.sub.c</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1433,7 +1434,7 @@
         <v>\item 044.sub.c</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1451,7 +1452,7 @@
         <v>\item 051.mul.c</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1469,7 +1470,7 @@
         <v>\item 052.mul.c</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1487,7 +1488,7 @@
         <v>\item 053.mul.c</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1505,7 +1506,7 @@
         <v>\item 054.mul.c</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1527,7 +1528,7 @@
         <v>\item 055.mul.c</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1549,7 +1550,7 @@
         <v>\item 056.mul.c</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -1571,7 +1572,7 @@
         <v>\item 057.mul.c</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1593,7 +1594,7 @@
         <v>\item 058.mul.c</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1611,7 +1612,7 @@
         <v>\item 061.div.c</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1629,7 +1630,7 @@
         <v>\item 062.div.c</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1647,7 +1648,7 @@
         <v>\item 063.div.c</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1665,7 +1666,7 @@
         <v>\item 064.div.c</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1683,7 +1684,7 @@
         <v>\item 065.div.c</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1701,7 +1702,7 @@
         <v>\item 066.div.c</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -1719,7 +1720,7 @@
         <v>\item 071.bool.c</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -1737,7 +1738,7 @@
         <v>\item 072.bool.c</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -1755,7 +1756,7 @@
         <v>\item 073.bool.c</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1773,7 +1774,7 @@
         <v>\item 074.bool.c</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -1795,7 +1796,7 @@
         <v>\item 075.bool.c</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -1813,7 +1814,7 @@
         <v>\item 076.bool.c</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -1831,7 +1832,7 @@
         <v>\item 077.bool.c</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -1849,7 +1850,7 @@
         <v>\item 078.bool.c</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -1867,7 +1868,7 @@
         <v>\item 081.shift.c</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -1885,7 +1886,7 @@
         <v>\item 082.shift.c</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -1903,7 +1904,7 @@
         <v>\item 083.shift.c</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -1925,7 +1926,7 @@
         <v>\item 084.shift.c</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -1947,7 +1948,7 @@
         <v>\item 085.shift.c</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -1969,7 +1970,7 @@
         <v>\item 086.shift.c</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -1991,7 +1992,7 @@
         <v>\item 111.if.c</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -2013,7 +2014,7 @@
         <v>\item 112.if.c</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -2035,7 +2036,7 @@
         <v>\item 113.if.c</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -2053,7 +2054,7 @@
         <v>\item 114.if.c</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -2071,7 +2072,7 @@
         <v>\item 115.if.c</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -2089,7 +2090,7 @@
         <v>\item 116.if.c</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -2107,7 +2108,7 @@
         <v>\item 117.if.c</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -2125,7 +2126,7 @@
         <v>\item 118.if.c</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -2251,7 +2252,7 @@
         <v>\item 126.loop.c</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -2260,7 +2261,7 @@
         <v>87</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -2269,7 +2270,7 @@
         <v>\item 131.call.c</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -2278,7 +2279,7 @@
         <v>88</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -2432,7 +2433,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E78"/>
+  <autoFilter ref="A1:F78">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Erro de simulação"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="D15:E15"/>
   </mergeCells>
